--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1056">
   <si>
     <t>anchor score</t>
   </si>
@@ -295,670 +295,670 @@
     <t>collapse</t>
   </si>
   <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>idiots</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>deaths</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>idiots</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>america</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>safety</t>
@@ -3550,7 +3550,7 @@
         <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K4">
         <v>0.8813559322033898</v>
@@ -3729,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K5">
         <v>0.8661417322834646</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>0.8545454545454545</v>
@@ -3829,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7">
         <v>0.8222222222222222</v>
@@ -3879,7 +3879,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>0.8</v>
@@ -3929,7 +3929,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K9">
         <v>0.7721518987341772</v>
@@ -4029,7 +4029,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K11">
         <v>0.7021276595744681</v>
@@ -4079,28 +4079,28 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="K12">
-        <v>0.6986899563318777</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L12">
         <v>160</v>
       </c>
       <c r="M12">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4129,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K13">
         <v>0.6595744680851063</v>
@@ -4179,7 +4179,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K14">
         <v>0.6222222222222222</v>
@@ -4229,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K15">
         <v>0.6190476190476191</v>
@@ -4279,7 +4279,7 @@
         <v>101</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K16">
         <v>0.6111111111111112</v>
@@ -4329,28 +4329,28 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="K17">
-        <v>0.5975609756097561</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L17">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4379,28 +4379,28 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="K18">
-        <v>0.5789473684210527</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4429,7 +4429,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K19">
         <v>0.5433070866141733</v>
@@ -4479,7 +4479,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K20">
         <v>0.5034722222222222</v>
@@ -4529,7 +4529,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K21">
         <v>0.4827586206896552</v>
@@ -4579,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K22">
         <v>0.4626865671641791</v>
@@ -4629,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K23">
         <v>0.4468085106382979</v>
@@ -4679,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K24">
         <v>0.4444444444444444</v>
@@ -4729,7 +4729,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K25">
         <v>0.4375</v>
@@ -4979,7 +4979,7 @@
         <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K30">
         <v>0.4047619047619048</v>
@@ -5179,7 +5179,7 @@
         <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K34">
         <v>0.375</v>
@@ -5229,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K35">
         <v>0.3734177215189873</v>
@@ -5329,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K37">
         <v>0.3679245283018868</v>
@@ -5529,7 +5529,7 @@
         <v>47</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K41">
         <v>0.3341404358353511</v>
@@ -5929,7 +5929,7 @@
         <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K49">
         <v>0.3209876543209876</v>
@@ -5979,7 +5979,7 @@
         <v>21</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K50">
         <v>0.32</v>
@@ -6029,7 +6029,7 @@
         <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K51">
         <v>0.3166666666666667</v>
@@ -6129,7 +6129,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K53">
         <v>0.3142857142857143</v>
@@ -6579,7 +6579,7 @@
         <v>16</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K62">
         <v>0.2857142857142857</v>
@@ -6629,7 +6629,7 @@
         <v>7</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K63">
         <v>0.2857142857142857</v>
@@ -7129,7 +7129,7 @@
         <v>10</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K73">
         <v>0.267515923566879</v>
@@ -7229,7 +7229,7 @@
         <v>5</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K75">
         <v>0.2651515151515151</v>
@@ -7379,7 +7379,7 @@
         <v>31</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K78">
         <v>0.26</v>
@@ -7429,7 +7429,7 @@
         <v>26</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K79">
         <v>0.2592592592592592</v>
@@ -7529,7 +7529,7 @@
         <v>11</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K81">
         <v>0.25</v>
@@ -7629,7 +7629,7 @@
         <v>28</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K83">
         <v>0.25</v>
@@ -7729,7 +7729,7 @@
         <v>6</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K85">
         <v>0.25</v>
@@ -7858,25 +7858,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1265822784810127</v>
+        <v>0.125</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>358</v>
@@ -7911,10 +7911,10 @@
         <v>0.125</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>359</v>
@@ -7961,10 +7961,10 @@
         <v>0.125</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>360</v>
@@ -8008,13 +8008,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.125</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>361</v>
@@ -8058,13 +8058,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>40</v>
@@ -8164,22 +8164,22 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>8</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K94">
         <v>0.2442748091603053</v>
@@ -8211,22 +8211,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="E95">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F95">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>363</v>
@@ -8264,13 +8264,13 @@
         <v>2</v>
       </c>
       <c r="D96">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E96">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F96">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -8279,7 +8279,7 @@
         <v>16</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K96">
         <v>0.2403100775193799</v>
@@ -8311,10 +8311,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E97">
         <v>0.97</v>
@@ -8326,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>364</v>
@@ -8364,13 +8364,13 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F98">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -8379,7 +8379,7 @@
         <v>8</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K98">
         <v>0.2355371900826446</v>
@@ -8411,25 +8411,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
       <c r="E99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K99">
         <v>0.2335766423357664</v>
@@ -8458,13 +8458,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1111111111111111</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>365</v>
@@ -8508,13 +8508,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1090909090909091</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>366</v>
@@ -8558,13 +8558,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1071428571428571</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>367</v>
@@ -8614,22 +8614,22 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>17</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K103">
         <v>0.2307692307692308</v>
@@ -8661,22 +8661,22 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E104">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F104">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>368</v>
@@ -8708,25 +8708,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>369</v>
@@ -8761,10 +8761,10 @@
         <v>0.1</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>370</v>
@@ -8858,25 +8858,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>372</v>
@@ -8908,25 +8908,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.09523809523809523</v>
+        <v>0.09375</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>373</v>
@@ -8958,13 +8958,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.09375</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8976,10 +8976,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K110">
         <v>0.2249718785151856</v>
@@ -9064,16 +9064,16 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>10</v>
@@ -9114,13 +9114,13 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F113">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -9129,7 +9129,7 @@
         <v>10</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K113">
         <v>0.2234042553191489</v>
@@ -9164,16 +9164,16 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>10</v>
@@ -9308,13 +9308,13 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>379</v>
@@ -9364,22 +9364,22 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>21</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K118">
         <v>0.2205882352941176</v>
@@ -9408,25 +9408,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>380</v>
@@ -9479,7 +9479,7 @@
         <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K120">
         <v>0.2134502923976608</v>
@@ -9558,13 +9558,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K122">
         <v>0.2121212121212121</v>
@@ -9608,28 +9608,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C123">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="E123">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F123">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K123">
         <v>0.2111801242236025</v>
@@ -9661,25 +9661,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K124">
         <v>0.2090909090909091</v>
@@ -9711,25 +9711,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F125">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K125">
         <v>0.2083333333333333</v>
@@ -9761,22 +9761,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>382</v>
@@ -9808,25 +9808,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.07692307692307693</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127">
         <v>10</v>
       </c>
       <c r="E127">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F127">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>383</v>
@@ -9858,13 +9858,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>384</v>
@@ -9908,28 +9908,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
         <v>3</v>
       </c>
-      <c r="D129">
-        <v>10</v>
-      </c>
       <c r="E129">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="F129">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K129">
         <v>0.2022346368715084</v>
@@ -9979,7 +9979,7 @@
         <v>13</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K130">
         <v>0.2019543973941368</v>
@@ -10008,13 +10008,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E131">
         <v>0.67</v>
@@ -10026,10 +10026,10 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K131">
         <v>0.2018779342723005</v>
@@ -10058,7 +10058,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>385</v>
@@ -10108,25 +10108,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>386</v>
@@ -10208,13 +10208,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>388</v>
@@ -10258,7 +10258,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>389</v>
@@ -10311,10 +10311,10 @@
         <v>0.0625</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -10326,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>390</v>
@@ -10364,16 +10364,16 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>15</v>
@@ -10429,7 +10429,7 @@
         <v>15</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K139">
         <v>0.2</v>
@@ -10464,16 +10464,16 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>15</v>
@@ -10561,22 +10561,22 @@
         <v>0.0625</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>394</v>
@@ -10614,16 +10614,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>15</v>
@@ -10658,25 +10658,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>396</v>
@@ -10708,25 +10708,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>397</v>
@@ -10761,10 +10761,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>398</v>
@@ -10808,25 +10808,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>399</v>
@@ -10858,7 +10858,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10876,10 +10876,10 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K148">
         <v>0.1971830985915493</v>
@@ -10911,10 +10911,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -10926,10 +10926,10 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K149">
         <v>0.1948051948051948</v>
@@ -10964,16 +10964,16 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>17</v>
@@ -11008,13 +11008,13 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>401</v>
@@ -11058,25 +11058,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>402</v>
@@ -11111,22 +11111,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>403</v>
@@ -11164,16 +11164,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>18</v>
@@ -11211,25 +11211,25 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K155">
         <v>0.1918294849023091</v>
@@ -11264,13 +11264,13 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F156">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
@@ -11279,7 +11279,7 @@
         <v>18</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K156">
         <v>0.1917808219178082</v>
@@ -11311,22 +11311,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>405</v>
@@ -11358,25 +11358,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>406</v>
@@ -11408,7 +11408,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>407</v>
@@ -11458,13 +11458,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -11476,10 +11476,10 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K160">
         <v>0.1824611032531825</v>
@@ -11608,25 +11608,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>410</v>
@@ -11658,25 +11658,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>411</v>
@@ -11708,25 +11708,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04761904761904762</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D165">
         <v>7</v>
       </c>
       <c r="E165">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>412</v>
@@ -11758,25 +11758,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04761904761904762</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="E166">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>413</v>
@@ -11808,13 +11808,13 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04697986577181208</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C167">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>414</v>
@@ -11858,25 +11858,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04666666666666667</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C168">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>415</v>
@@ -11908,7 +11908,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11926,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>416</v>
@@ -11958,28 +11958,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K170">
         <v>0.1794871794871795</v>
@@ -12014,16 +12014,16 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
         <v>22</v>
@@ -12058,25 +12058,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>418</v>
@@ -12108,25 +12108,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>419</v>
@@ -12158,25 +12158,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0425531914893617</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
       <c r="D174">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="F174">
-        <v>0.05000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>420</v>
@@ -12208,25 +12208,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.04166666666666666</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E175">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F175">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>421</v>
@@ -12258,25 +12258,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04081632653061224</v>
+        <v>0.04</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>422</v>
@@ -12308,25 +12308,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04081632653061224</v>
+        <v>0.04</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E177">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>423</v>
@@ -12364,16 +12364,16 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>24</v>
@@ -12414,13 +12414,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         <v>24</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K179">
         <v>0.1707317073170732</v>
@@ -12464,13 +12464,13 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E180">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F180">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
@@ -12508,25 +12508,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.04</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>426</v>
@@ -12558,25 +12558,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F182">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>427</v>
@@ -12608,25 +12608,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03947368421052631</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E183">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F183">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>428</v>
@@ -12658,25 +12658,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E184">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F184">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>429</v>
@@ -12708,28 +12708,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03846153846153846</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F185">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K185">
         <v>0.1666666666666667</v>
@@ -12758,25 +12758,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>430</v>
@@ -12814,16 +12814,16 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>27</v>
@@ -12858,25 +12858,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>432</v>
@@ -12908,7 +12908,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>433</v>
@@ -12958,25 +12958,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>434</v>
@@ -13008,25 +13008,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>435</v>
@@ -13058,25 +13058,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03333333333333333</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="F192">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>436</v>
@@ -13108,25 +13108,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03333333333333333</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E193">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F193">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>437</v>
@@ -13158,25 +13158,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03260869565217391</v>
+        <v>0.03125</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>438</v>
@@ -13208,25 +13208,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03174603174603174</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>439</v>
@@ -13258,25 +13258,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>440</v>
@@ -13308,25 +13308,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0303030303030303</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>441</v>
@@ -13358,25 +13358,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>442</v>
@@ -13408,25 +13408,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0297029702970297</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C199">
         <v>3</v>
       </c>
       <c r="D199">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E199">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F199">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>443</v>
@@ -13458,25 +13458,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>444</v>
@@ -13508,25 +13508,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201">
+        <v>0.75</v>
+      </c>
+      <c r="F201">
+        <v>0.25</v>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201">
         <v>35</v>
-      </c>
-      <c r="E201">
-        <v>0.91</v>
-      </c>
-      <c r="F201">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201">
-        <v>99</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>445</v>
@@ -13558,25 +13558,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>446</v>
@@ -13608,25 +13608,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E203">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F203">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>447</v>
@@ -13658,25 +13658,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>448</v>
@@ -13708,25 +13708,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F205">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>449</v>
@@ -13758,25 +13758,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02631578947368421</v>
+        <v>0.02536231884057971</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E206">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F206">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>450</v>
@@ -13808,7 +13808,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>451</v>
@@ -13858,25 +13858,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02536231884057971</v>
+        <v>0.025</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>452</v>
@@ -13908,25 +13908,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>453</v>
@@ -13958,25 +13958,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>454</v>
@@ -14014,13 +14014,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -14058,25 +14058,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D212">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>456</v>
@@ -14108,25 +14108,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D213">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>457</v>
@@ -14158,28 +14158,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D214">
         <v>4</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K214">
         <v>0.1595092024539877</v>
@@ -14211,25 +14211,25 @@
         <v>0.02380952380952381</v>
       </c>
       <c r="C215">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K215">
         <v>0.1584699453551913</v>
@@ -14258,25 +14258,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>458</v>
@@ -14308,28 +14308,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E217">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F217">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K217">
         <v>0.1570762052877138</v>
@@ -14358,25 +14358,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>459</v>
@@ -14408,28 +14408,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02325581395348837</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E219">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F219">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K219">
         <v>0.1555555555555556</v>
@@ -14458,25 +14458,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>460</v>
@@ -14508,28 +14508,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02247191011235955</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K221">
         <v>0.1551724137931035</v>
@@ -14558,28 +14558,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02222222222222222</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K222">
         <v>0.1538461538461539</v>
@@ -14608,25 +14608,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>461</v>
@@ -14658,25 +14658,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0218978102189781</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="F224">
-        <v>0.04000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>462</v>
@@ -14708,25 +14708,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E225">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F225">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>463</v>
@@ -14758,25 +14758,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E226">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="F226">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>464</v>
@@ -14808,25 +14808,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E227">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F227">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>465</v>
@@ -14861,22 +14861,22 @@
         <v>0.02</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F228">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>466</v>
@@ -14908,25 +14908,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E229">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F229">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>467</v>
@@ -14958,25 +14958,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D230">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E230">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="F230">
-        <v>0.18</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>468</v>
@@ -15008,25 +15008,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E231">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F231">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>469</v>
@@ -15058,28 +15058,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0193050193050193</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C232">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="E232">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F232">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K232">
         <v>0.1496062992125984</v>
@@ -15108,25 +15108,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01886792452830189</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E233">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F233">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>470</v>
@@ -15158,25 +15158,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E234">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F234">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>471</v>
@@ -15208,25 +15208,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01834862385321101</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E235">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F235">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>472</v>
@@ -15261,22 +15261,22 @@
         <v>0.01818181818181818</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E236">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F236">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>473</v>
@@ -15314,13 +15314,13 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E237">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F237">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
@@ -15329,7 +15329,7 @@
         <v>54</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K237">
         <v>0.1478463329452852</v>
@@ -15358,25 +15358,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D238">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="E238">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F238">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>474</v>
@@ -15408,28 +15408,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K239">
         <v>0.1454545454545454</v>
@@ -15458,28 +15458,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C240">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="E240">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F240">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>275</v>
+        <v>56</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K240">
         <v>0.144</v>
@@ -15508,28 +15508,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K241">
         <v>0.1428571428571428</v>
@@ -15558,25 +15558,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E242">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F242">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>475</v>
@@ -15614,13 +15614,13 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F243">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
@@ -15629,7 +15629,7 @@
         <v>57</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K243">
         <v>0.1428571428571428</v>
@@ -15658,25 +15658,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01724137931034483</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E244">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F244">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>476</v>
@@ -15708,25 +15708,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>477</v>
@@ -15758,25 +15758,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0170940170940171</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E246">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F246">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>478</v>
@@ -15808,25 +15808,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>479</v>
@@ -15858,25 +15858,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E248">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F248">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>480</v>
@@ -15908,25 +15908,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E249">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F249">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>481</v>
@@ -15958,25 +15958,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D250">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E250">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F250">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>61</v>
+        <v>315</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>482</v>
@@ -16008,25 +16008,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E251">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F251">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>483</v>
@@ -16058,25 +16058,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.015625</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C252">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="E252">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F252">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>484</v>
@@ -16108,25 +16108,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01538461538461539</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D253">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E253">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F253">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>485</v>
@@ -16158,25 +16158,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01515151515151515</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E254">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F254">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>486</v>
@@ -16208,25 +16208,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01492537313432836</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F255">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>487</v>
@@ -16258,25 +16258,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01449275362318841</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E256">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F256">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>488</v>
@@ -16314,13 +16314,13 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E257">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F257">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
@@ -16358,25 +16358,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01388888888888889</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E258">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F258">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>490</v>
@@ -16408,25 +16408,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01388888888888889</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>491</v>
@@ -16458,25 +16458,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01333333333333333</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E260">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F260">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>492</v>
@@ -16508,25 +16508,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0131578947368421</v>
+        <v>0.01275045537340619</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>75</v>
+        <v>542</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>493</v>
@@ -16558,25 +16558,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01282051282051282</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F262">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>494</v>
@@ -16608,25 +16608,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01275045537340619</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C263">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="E263">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F263">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>542</v>
+        <v>78</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>495</v>
@@ -16664,13 +16664,13 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E264">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F264">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
@@ -16708,25 +16708,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01265822784810127</v>
+        <v>0.01252847380410023</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D265">
-        <v>11</v>
+        <v>409</v>
       </c>
       <c r="E265">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F265">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>78</v>
+        <v>1734</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>497</v>
@@ -16758,25 +16758,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01265822784810127</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E266">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F266">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>498</v>
@@ -16808,25 +16808,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01252847380410023</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C267">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="E267">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F267">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>1734</v>
+        <v>170</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>499</v>
@@ -16858,25 +16858,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01234567901234568</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="E268">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F268">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>500</v>
@@ -16908,25 +16908,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01162790697674419</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E269">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F269">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>501</v>
@@ -16958,25 +16958,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01136363636363636</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="E270">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="F270">
-        <v>0.01000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>502</v>
@@ -17008,25 +17008,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01123595505617977</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D271">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E271">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F271">
-        <v>0.11</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>88</v>
+        <v>915</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>503</v>
@@ -17058,25 +17058,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01111111111111111</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D272">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="E272">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F272">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>89</v>
+        <v>732</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>504</v>
@@ -17108,25 +17108,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01081081081081081</v>
+        <v>0.01076984443558037</v>
       </c>
       <c r="C273">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D273">
-        <v>53</v>
+        <v>627</v>
       </c>
       <c r="E273">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="F273">
-        <v>0.1899999999999999</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>915</v>
+        <v>2480</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>505</v>
@@ -17158,25 +17158,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01081081081081081</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="C274">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D274">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="E274">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274">
-        <v>732</v>
+        <v>369</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>506</v>
@@ -17208,25 +17208,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01076984443558037</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C275">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>627</v>
+        <v>13</v>
       </c>
       <c r="E275">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F275">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>2480</v>
+        <v>96</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>507</v>
@@ -17258,28 +17258,28 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01072386058981233</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C276">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276">
-        <v>369</v>
+        <v>97</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K276">
         <v>0.1428571428571428</v>
@@ -17308,25 +17308,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01030927835051546</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E277">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F277">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>508</v>
@@ -17358,25 +17358,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01020408163265306</v>
+        <v>0.01</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E278">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F278">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>509</v>
@@ -17408,25 +17408,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.01020408163265306</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E279">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F279">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>510</v>
@@ -17458,25 +17458,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.01</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E280">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F280">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>511</v>
@@ -17508,25 +17508,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.009523809523809525</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E281">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F281">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>512</v>
@@ -17558,25 +17558,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.009345794392523364</v>
+        <v>0.008714596949891068</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D282">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="E282">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F282">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>106</v>
+        <v>455</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>513</v>
@@ -17608,25 +17608,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.009009009009009009</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E283">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F283">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>514</v>
@@ -17658,25 +17658,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.008714596949891068</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C284">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E284">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F284">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>455</v>
+        <v>117</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>515</v>
@@ -17708,28 +17708,28 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.008547008547008548</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E285">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F285">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K285">
         <v>0.1333333333333333</v>
@@ -17758,25 +17758,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.008474576271186441</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D286">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="E286">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F286">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>117</v>
+        <v>714</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>516</v>
@@ -17808,25 +17808,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.008403361344537815</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E287">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F287">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>517</v>
@@ -17858,25 +17858,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.008333333333333333</v>
+        <v>0.00796812749003984</v>
       </c>
       <c r="C288">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="E288">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F288">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>714</v>
+        <v>249</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>518</v>
@@ -17908,25 +17908,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.008333333333333333</v>
+        <v>0.007858546168958742</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D289">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E289">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F289">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>119</v>
+        <v>505</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>519</v>
@@ -17958,25 +17958,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.00796812749003984</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E290">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F290">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>520</v>
@@ -18008,25 +18008,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.007858546168958742</v>
+        <v>0.007204610951008645</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D291">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="E291">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F291">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>505</v>
+        <v>689</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>521</v>
@@ -18058,28 +18058,28 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.007246376811594203</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E292">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F292">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K292">
         <v>0.1333333333333333</v>
@@ -18108,28 +18108,28 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.007204610951008645</v>
+        <v>0.0056657223796034</v>
       </c>
       <c r="C293">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D293">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="E293">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F293">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>689</v>
+        <v>1053</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K293">
         <v>0.1323529411764706</v>
@@ -18158,25 +18158,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.006578947368421052</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="E294">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F294">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>151</v>
+        <v>370</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>522</v>
@@ -18208,25 +18208,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.0056657223796034</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C295">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="E295">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F295">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>1053</v>
+        <v>186</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>523</v>
@@ -18258,25 +18258,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.005376344086021506</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="E296">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F296">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>370</v>
+        <v>206</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>524</v>
@@ -18308,25 +18308,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.0053475935828877</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E297">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F297">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>525</v>
@@ -18358,25 +18358,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.004830917874396135</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E298">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F298">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>526</v>
@@ -18408,25 +18408,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.004672897196261682</v>
+        <v>0.00422237860661506</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D299">
-        <v>14</v>
+        <v>371</v>
       </c>
       <c r="E299">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F299">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>213</v>
+        <v>2830</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>527</v>
@@ -18458,28 +18458,28 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.00425531914893617</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E300">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F300">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K300">
         <v>0.1296296296296296</v>
@@ -18508,13 +18508,13 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.00422237860661506</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="C301">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>371</v>
+        <v>32</v>
       </c>
       <c r="E301">
         <v>0.97</v>
@@ -18526,10 +18526,10 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>2830</v>
+        <v>274</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K301">
         <v>0.1290322580645161</v>
@@ -18558,25 +18558,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.004065040650406504</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E302">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F302">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>528</v>
@@ -18608,28 +18608,28 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.003636363636363636</v>
+        <v>0.002958579881656805</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E303">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F303">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K303">
         <v>0.1290322580645161</v>
@@ -18654,32 +18654,8 @@
       </c>
     </row>
     <row r="304" spans="1:17">
-      <c r="A304" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B304">
-        <v>0.003448275862068965</v>
-      </c>
-      <c r="C304">
-        <v>1</v>
-      </c>
-      <c r="D304">
-        <v>4</v>
-      </c>
-      <c r="E304">
-        <v>0.75</v>
-      </c>
-      <c r="F304">
-        <v>0.25</v>
-      </c>
-      <c r="G304" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304">
-        <v>289</v>
-      </c>
       <c r="J304" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K304">
         <v>0.1261261261261261</v>
@@ -18703,31 +18679,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
-      <c r="A305" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B305">
-        <v>0.002958579881656805</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>23</v>
-      </c>
-      <c r="E305">
-        <v>0.96</v>
-      </c>
-      <c r="F305">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305">
-        <v>337</v>
-      </c>
+    <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
         <v>529</v>
       </c>
@@ -18753,7 +18705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
         <v>530</v>
       </c>
@@ -18779,7 +18731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
         <v>531</v>
       </c>
@@ -18805,7 +18757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
         <v>532</v>
       </c>
@@ -18831,7 +18783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
         <v>533</v>
       </c>
@@ -18857,7 +18809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
         <v>534</v>
       </c>
@@ -18883,7 +18835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
         <v>535</v>
       </c>
@@ -18909,7 +18861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
         <v>536</v>
       </c>
@@ -18935,7 +18887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
         <v>537</v>
       </c>
@@ -18961,7 +18913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
         <v>538</v>
       </c>
@@ -18987,7 +18939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
         <v>539</v>
       </c>
@@ -19013,7 +18965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
         <v>540</v>
       </c>
@@ -19039,9 +18991,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K317">
         <v>0.125</v>
@@ -19065,7 +19017,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
         <v>541</v>
       </c>
@@ -19091,7 +19043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
         <v>542</v>
       </c>
@@ -19117,7 +19069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
         <v>543</v>
       </c>
@@ -19873,7 +19825,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K349">
         <v>0.1224489795918367</v>
@@ -19899,7 +19851,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K350">
         <v>0.1212121212121212</v>
@@ -19925,7 +19877,7 @@
     </row>
     <row r="351" spans="10:17">
       <c r="J351" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K351">
         <v>0.1212121212121212</v>
@@ -20393,7 +20345,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K369">
         <v>0.1169590643274854</v>
@@ -20523,7 +20475,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K374">
         <v>0.1136363636363636</v>
@@ -20601,7 +20553,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K377">
         <v>0.1125744747569771</v>
@@ -20731,7 +20683,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K382">
         <v>0.1111111111111111</v>
@@ -21017,7 +20969,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K393">
         <v>0.1111111111111111</v>
@@ -21095,7 +21047,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K396">
         <v>0.1111111111111111</v>
@@ -21381,7 +21333,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K407">
         <v>0.1111111111111111</v>
@@ -21511,7 +21463,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K412">
         <v>0.1075268817204301</v>
@@ -21849,7 +21801,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K425">
         <v>0.1029411764705882</v>
@@ -21927,7 +21879,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K428">
         <v>0.1016393442622951</v>
@@ -21953,7 +21905,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K429">
         <v>0.1012658227848101</v>
@@ -22005,7 +21957,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K431">
         <v>0.1</v>
@@ -22993,7 +22945,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K469">
         <v>0.09615384615384616</v>
@@ -23123,7 +23075,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K474">
         <v>0.09230769230769231</v>
@@ -23149,7 +23101,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K475">
         <v>0.09090909090909091</v>
@@ -23409,7 +23361,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K485">
         <v>0.09090909090909091</v>
@@ -23487,7 +23439,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K488">
         <v>0.09090909090909091</v>
@@ -24137,7 +24089,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K513">
         <v>0.08974358974358974</v>
@@ -24267,7 +24219,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K518">
         <v>0.08831168831168831</v>
@@ -24371,7 +24323,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K522">
         <v>0.08771929824561403</v>
@@ -24501,7 +24453,7 @@
     </row>
     <row r="527" spans="10:17">
       <c r="J527" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K527">
         <v>0.08661417322834646</v>
@@ -24527,7 +24479,7 @@
     </row>
     <row r="528" spans="10:17">
       <c r="J528" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K528">
         <v>0.08490566037735849</v>
@@ -24579,7 +24531,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K530">
         <v>0.0847457627118644</v>
@@ -24605,7 +24557,7 @@
     </row>
     <row r="531" spans="10:17">
       <c r="J531" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K531">
         <v>0.08411214953271028</v>
@@ -24787,7 +24739,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K538">
         <v>0.08333333333333333</v>
@@ -24813,7 +24765,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K539">
         <v>0.08333333333333333</v>
@@ -25177,7 +25129,7 @@
     </row>
     <row r="553" spans="10:17">
       <c r="J553" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K553">
         <v>0.08247422680412371</v>
@@ -25229,7 +25181,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K555">
         <v>0.08064516129032258</v>
@@ -25255,7 +25207,7 @@
     </row>
     <row r="556" spans="10:17">
       <c r="J556" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K556">
         <v>0.08035714285714286</v>
@@ -25437,7 +25389,7 @@
     </row>
     <row r="563" spans="10:17">
       <c r="J563" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K563">
         <v>0.08</v>
@@ -25489,7 +25441,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K565">
         <v>0.07894736842105263</v>
@@ -25515,7 +25467,7 @@
     </row>
     <row r="566" spans="10:17">
       <c r="J566" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K566">
         <v>0.07874015748031496</v>
@@ -25593,7 +25545,7 @@
     </row>
     <row r="569" spans="10:17">
       <c r="J569" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K569">
         <v>0.07692307692307693</v>
@@ -26061,7 +26013,7 @@
     </row>
     <row r="587" spans="10:17">
       <c r="J587" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K587">
         <v>0.07547169811320754</v>
@@ -26087,7 +26039,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K588">
         <v>0.075</v>
@@ -26867,7 +26819,7 @@
     </row>
     <row r="618" spans="10:17">
       <c r="J618" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K618">
         <v>0.07142857142857142</v>
@@ -27075,7 +27027,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K626">
         <v>0.0684931506849315</v>
@@ -27127,7 +27079,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K628">
         <v>0.06818181818181818</v>
@@ -27621,7 +27573,7 @@
     </row>
     <row r="647" spans="10:17">
       <c r="J647" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K647">
         <v>0.06654343807763401</v>
@@ -27881,7 +27833,7 @@
     </row>
     <row r="657" spans="10:17">
       <c r="J657" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K657">
         <v>0.06382978723404255</v>
@@ -28375,7 +28327,7 @@
     </row>
     <row r="676" spans="10:17">
       <c r="J676" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K676">
         <v>0.06153846153846154</v>
@@ -28401,7 +28353,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K677">
         <v>0.06128133704735376</v>
@@ -28713,7 +28665,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K689">
         <v>0.05882352941176471</v>
@@ -28817,7 +28769,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K693">
         <v>0.05882352941176471</v>
@@ -29129,7 +29081,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K705">
         <v>0.05752212389380531</v>
@@ -29649,7 +29601,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K725">
         <v>0.05333333333333334</v>
@@ -29675,7 +29627,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K726">
         <v>0.05319148936170213</v>
@@ -29831,7 +29783,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K732">
         <v>0.05263157894736842</v>
@@ -31053,7 +31005,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K779">
         <v>0.04545454545454546</v>
@@ -31261,7 +31213,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K787">
         <v>0.04545454545454546</v>
@@ -31313,7 +31265,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K789">
         <v>0.04488517745302714</v>
@@ -31521,7 +31473,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K797">
         <v>0.04347826086956522</v>
@@ -32171,7 +32123,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K822">
         <v>0.03846153846153846</v>
@@ -32353,7 +32305,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K829">
         <v>0.03703703703703703</v>
@@ -32587,7 +32539,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K838">
         <v>0.03571428571428571</v>
@@ -32665,7 +32617,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K841">
         <v>0.03571428571428571</v>
@@ -32769,7 +32721,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K845">
         <v>0.03448275862068965</v>
@@ -33003,7 +32955,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K854">
         <v>0.03174603174603174</v>
@@ -33081,7 +33033,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K857">
         <v>0.03125</v>
@@ -33289,7 +33241,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K865">
         <v>0.0303030303030303</v>
@@ -33367,7 +33319,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K868">
         <v>0.02941176470588235</v>
@@ -33549,7 +33501,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K875">
         <v>0.02564102564102564</v>
@@ -33653,7 +33605,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K879">
         <v>0.025</v>
@@ -33913,7 +33865,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K889">
         <v>0.0202020202020202</v>
@@ -34043,7 +33995,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K894">
         <v>0.01724137931034483</v>
@@ -34225,7 +34177,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K901">
         <v>0.01063829787234043</v>
@@ -34251,7 +34203,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K902">
         <v>0.01027397260273973</v>
@@ -34277,7 +34229,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K903">
         <v>0.009523809523809525</v>
@@ -34355,7 +34307,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K906">
         <v>0.00425531914893617</v>
